--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561814.6173756763</v>
+        <v>564123.0359685745</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346309</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970762</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7499144.52863144</v>
+        <v>7444934.365268382</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>117.735771174739</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>63.35353140430914</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -820,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -908,7 +910,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>316.5487336740566</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1026,7 +1028,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830814</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>213.6244219116071</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>334.795945947054</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>171.7842945418048</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.35728514156275</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1303,16 +1305,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1376,7 +1378,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>40.26304875849193</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>336.748425770774</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.6898023759649</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>22.96189723698673</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -1576,13 +1578,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1609,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>408.4320078302043</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>161.4085122120592</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>100.3434053864689</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>111.2541979321319</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>145.1103944575774</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -1910,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>114.7890777533882</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2062,10 +2064,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23.31099831538233</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>394.4040223850893</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87.95308749070786</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>23.8619044471574</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>322.2785586424422</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>16.04602484718566</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2479,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.5268685648662</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.12369050152963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>11.82649785531228</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>25.35996799970812</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2621,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>114.7890777533882</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>159.6766942690402</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>319.8928651882699</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>204.555531358588</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>159.314994701633</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>29.62616891132733</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -3092,10 +3094,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>305.5013027154384</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>170.2797053248273</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59.70065638348623</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>97.61153143263847</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3271,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>349.4065004375092</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.7480363891213</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39.21586356488675</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.7406737689587</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3509,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>81.49716024236787</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>70.60676527756748</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>9.126850821345537</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>13.33918315206962</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>169.9475264386941</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>159.2503300943076</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.6476561767118</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>114.7890777533882</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>88.25593844339237</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -4022,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -4040,10 +4042,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>72.87250780621707</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>77.35606670297503</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
@@ -4192,10 +4194,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>53.03638470914545</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>996.295185472188</v>
+        <v>1645.407563735423</v>
       </c>
       <c r="C2" t="n">
-        <v>996.295185472188</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D2" t="n">
-        <v>996.295185472188</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E2" t="n">
-        <v>996.295185472188</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F2" t="n">
-        <v>579.4007470021658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>166.2379914901689</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4328,25 +4330,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>265.4829774041385</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L2" t="n">
-        <v>758.8032691226673</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M2" t="n">
-        <v>1304.804169167248</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N2" t="n">
-        <v>1832.61545280471</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
@@ -4358,22 +4360,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2301.655039012222</v>
       </c>
       <c r="U2" t="n">
-        <v>2109.895775511779</v>
+        <v>2045.90230944682</v>
       </c>
       <c r="V2" t="n">
-        <v>1767.788966215297</v>
+        <v>2045.90230944682</v>
       </c>
       <c r="W2" t="n">
-        <v>1396.789931183585</v>
+        <v>2045.90230944682</v>
       </c>
       <c r="X2" t="n">
-        <v>1396.789931183585</v>
+        <v>2045.90230944682</v>
       </c>
       <c r="Y2" t="n">
-        <v>1396.789931183585</v>
+        <v>2045.90230944682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K3" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195844</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M3" t="n">
-        <v>643.9940382195844</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4446,13 +4448,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1965.153759365783</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C5" t="n">
-        <v>1571.978257868714</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.537129085382</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E5" t="n">
-        <v>783.9536042019261</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
-        <v>367.0591657319038</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4574,16 +4576,16 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1392.575851912381</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>140.0776713099957</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N6" t="n">
         <v>1209.141762214911</v>
@@ -4674,13 +4676,13 @@
         <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C7" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D7" t="n">
-        <v>215.5670240020981</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E7" t="n">
-        <v>215.5670240020981</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F7" t="n">
-        <v>215.5670240020981</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4759,16 +4761,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>732.9777482879374</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>449.647346219115</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.5670240020981</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>220.8324595377101</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C8" t="n">
-        <v>220.8324595377101</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D8" t="n">
-        <v>220.8324595377101</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>220.8324595377101</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8324595377101</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>220.8324595377101</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4807,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4828,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1719.881618012246</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1377.774808715765</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>1006.775773684052</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>617.323168617109</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.8324595377101</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
         <v>367.0521161637701</v>
@@ -4890,34 +4892,34 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5004,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>714.6796704260792</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.6796704260792</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1228.513125265401</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C11" t="n">
-        <v>835.3376237683314</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D11" t="n">
-        <v>449.8964949849991</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E11" t="n">
         <v>47.31297010154361</v>
@@ -5042,22 +5044,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
-        <v>353.2546601492718</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>846.5749518678007</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1392.575851912381</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
@@ -5072,19 +5074,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>2324.978758856481</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1982.87194956</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.64850507718</v>
+        <v>1611.872914528287</v>
       </c>
       <c r="X11" t="n">
-        <v>2025.498580056196</v>
+        <v>1222.420309461344</v>
       </c>
       <c r="Y11" t="n">
-        <v>1629.007870976798</v>
+        <v>825.9296003819453</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5126,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L12" t="n">
-        <v>272.5108437565973</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M12" t="n">
-        <v>858.0088487631995</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
         <v>2341.731461975244</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C13" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="D13" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="F13" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="G13" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="I13" t="n">
         <v>77.69124027544166</v>
@@ -5224,25 +5226,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>589.1399514439072</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>589.1399514439072</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>589.1399514439072</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W13" t="n">
-        <v>589.1399514439072</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X13" t="n">
-        <v>589.1399514439072</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y13" t="n">
-        <v>366.0278902605505</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1965.153759365783</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C14" t="n">
-        <v>1571.978257868714</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D14" t="n">
-        <v>1186.537129085382</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E14" t="n">
-        <v>783.9536042019261</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F14" t="n">
-        <v>783.9536042019261</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5306,22 +5308,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2202.609603852878</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>1946.856874287477</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.750064990995</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1233.751029959283</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.64850507718</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y14" t="n">
-        <v>2365.64850507718</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>194.5661265746808</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>678.1322124729941</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P15" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5413,7 +5415,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="C16" t="n">
-        <v>847.4030175052487</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D16" t="n">
         <v>847.4030175052487</v>
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>460.4757256135405</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="C17" t="n">
-        <v>460.4757256135405</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D17" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E17" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G17" t="n">
         <v>47.31297010154361</v>
@@ -5516,19 +5518,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P17" t="n">
         <v>2365.64850507718</v>
@@ -5540,25 +5542,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>2071.902861797301</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V17" t="n">
-        <v>1729.796052500819</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W17" t="n">
-        <v>1358.797017469107</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X17" t="n">
-        <v>969.3444124021636</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y17" t="n">
-        <v>572.8537033227647</v>
+        <v>579.3302549026308</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
         <v>47.31297010154361</v>
@@ -5601,43 +5603,43 @@
         <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>858.0088487631995</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O18" t="n">
-        <v>1960.027136360783</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5701,16 +5703,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>832.8114292558353</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U19" t="n">
-        <v>547.3726374977363</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V19" t="n">
-        <v>281.3932923185605</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W19" t="n">
-        <v>281.3932923185605</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X19" t="n">
         <v>47.31297010154361</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2535.796644191037</v>
+        <v>862.595309970646</v>
       </c>
       <c r="C20" t="n">
-        <v>2142.621142693967</v>
+        <v>862.595309970646</v>
       </c>
       <c r="D20" t="n">
-        <v>1757.180013910635</v>
+        <v>862.595309970646</v>
       </c>
       <c r="E20" t="n">
-        <v>1354.596489027179</v>
+        <v>862.595309970646</v>
       </c>
       <c r="F20" t="n">
-        <v>937.702050557157</v>
+        <v>445.7008715006237</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>2559.343107135867</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W20" t="n">
-        <v>2559.343107135867</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X20" t="n">
-        <v>2559.343107135867</v>
+        <v>1263.090055682043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2559.343107135867</v>
+        <v>1263.090055682043</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2463.555983114101</v>
+        <v>226.8944549250571</v>
       </c>
       <c r="C22" t="n">
-        <v>2293.35086518009</v>
+        <v>226.8944549250571</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>226.8944549250571</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>226.8944549250571</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>226.8944549250571</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T22" t="n">
-        <v>3105.956385205776</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U22" t="n">
-        <v>3105.956385205776</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V22" t="n">
-        <v>3105.956385205776</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W22" t="n">
-        <v>3105.956385205776</v>
+        <v>226.8944549250571</v>
       </c>
       <c r="X22" t="n">
-        <v>2871.876062988759</v>
+        <v>226.8944549250571</v>
       </c>
       <c r="Y22" t="n">
-        <v>2648.764001805403</v>
+        <v>226.8944549250571</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2082.713911529263</v>
+        <v>466.1046008912472</v>
       </c>
       <c r="C23" t="n">
-        <v>2082.713911529263</v>
+        <v>466.1046008912472</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.180013910635</v>
+        <v>466.1046008912472</v>
       </c>
       <c r="E23" t="n">
-        <v>1354.596489027179</v>
+        <v>63.52107600779175</v>
       </c>
       <c r="F23" t="n">
-        <v>937.702050557157</v>
+        <v>63.52107600779175</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>63.52107600779175</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U23" t="n">
-        <v>2850.203655640375</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V23" t="n">
-        <v>2850.203655640375</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W23" t="n">
-        <v>2479.204620608662</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X23" t="n">
-        <v>2479.204620608662</v>
+        <v>1263.090055682043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2082.713911529263</v>
+        <v>866.5993466026441</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.973980501895</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411553</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411553</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>839.6651608782449</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>636.8490770607943</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T25" t="n">
-        <v>401.1300252290284</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U25" t="n">
-        <v>401.1300252290284</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V25" t="n">
-        <v>401.1300252290284</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W25" t="n">
-        <v>117.7996231602061</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X25" t="n">
-        <v>117.7996231602061</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>510.2248569938795</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>371.396020535053</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H26" t="n">
         <v>47.31297010154361</v>
@@ -6230,19 +6232,19 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O26" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
         <v>2365.64850507718</v>
@@ -6251,25 +6253,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2353.702547647572</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2130.201945206989</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U26" t="n">
-        <v>1874.449215641587</v>
+        <v>2340.032375784546</v>
       </c>
       <c r="V26" t="n">
-        <v>1532.342406345106</v>
+        <v>1997.925566488064</v>
       </c>
       <c r="W26" t="n">
-        <v>1161.343371313393</v>
+        <v>1626.926531456352</v>
       </c>
       <c r="X26" t="n">
-        <v>771.8907662464499</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y26" t="n">
-        <v>771.8907662464499</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M27" t="n">
-        <v>1436.116207068686</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N27" t="n">
-        <v>2021.614212075288</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O27" t="n">
-        <v>2365.648505077179</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.31297010154361</v>
+        <v>1921.02851283761</v>
       </c>
       <c r="C28" t="n">
-        <v>47.31297010154361</v>
+        <v>1921.02851283761</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154361</v>
+        <v>1921.02851283761</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154361</v>
+        <v>1921.02851283761</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>1921.02851283761</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>1752.774458937056</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>1597.29590789855</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K28" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M28" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N28" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O28" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P28" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q28" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R28" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T28" t="n">
-        <v>832.8114292558353</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U28" t="n">
-        <v>547.3726374977363</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V28" t="n">
-        <v>281.3932923185605</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W28" t="n">
-        <v>281.3932923185605</v>
+        <v>2082.318103008358</v>
       </c>
       <c r="X28" t="n">
-        <v>47.31297010154361</v>
+        <v>1921.02851283761</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.31297010154361</v>
+        <v>1921.02851283761</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1032.551349229004</v>
+        <v>1927.160845651305</v>
       </c>
       <c r="C29" t="n">
-        <v>639.3758477319345</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D29" t="n">
-        <v>253.9347189486023</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H29" t="n">
         <v>47.31297010154361</v>
@@ -6461,22 +6463,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M29" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N29" t="n">
-        <v>2017.461012945658</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O29" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P29" t="n">
         <v>2365.64850507718</v>
@@ -6485,28 +6487,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T29" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U29" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V29" t="n">
-        <v>1800.041093340115</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W29" t="n">
-        <v>1429.042058308403</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X29" t="n">
-        <v>1429.042058308403</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y29" t="n">
-        <v>1032.551349229004</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6551,13 @@
         <v>530.8790559998569</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O30" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P30" t="n">
         <v>2365.648505077179</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1848.237780791341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>1848.237780791341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>1848.237780791341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>1848.237780791341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>1848.237780791341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>1679.983726890787</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>1524.50517585228</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W31" t="n">
-        <v>2082.318103008358</v>
+        <v>665.4295905742738</v>
       </c>
       <c r="X31" t="n">
-        <v>1848.237780791341</v>
+        <v>431.3492683572568</v>
       </c>
       <c r="Y31" t="n">
-        <v>1848.237780791341</v>
+        <v>208.2372071739002</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>464.2074085715658</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="C32" t="n">
-        <v>464.2074085715658</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D32" t="n">
-        <v>464.2074085715658</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E32" t="n">
-        <v>464.2074085715658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F32" t="n">
         <v>47.31297010154361</v>
@@ -6698,25 +6700,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
@@ -6728,22 +6730,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U32" t="n">
-        <v>1886.395173071196</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V32" t="n">
-        <v>1544.288363774714</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W32" t="n">
-        <v>1173.289328743002</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X32" t="n">
-        <v>864.7021542829627</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="Y32" t="n">
-        <v>864.7021542829627</v>
+        <v>835.3376237683314</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.875066013061</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O33" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P33" t="n">
         <v>2365.648505077179</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>371.0455750406041</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="C34" t="n">
-        <v>371.0455750406041</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="D34" t="n">
-        <v>371.0455750406041</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E34" t="n">
-        <v>371.0455750406041</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F34" t="n">
-        <v>371.0455750406041</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G34" t="n">
-        <v>202.7915211400496</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H34" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I34" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K34" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M34" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N34" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O34" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P34" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q34" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R34" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S34" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T34" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U34" t="n">
-        <v>948.7599926430961</v>
+        <v>2080.209713319081</v>
       </c>
       <c r="V34" t="n">
-        <v>948.7599926430961</v>
+        <v>2080.209713319081</v>
       </c>
       <c r="W34" t="n">
-        <v>665.4295905742738</v>
+        <v>1796.879311250259</v>
       </c>
       <c r="X34" t="n">
-        <v>431.3492683572568</v>
+        <v>1562.798989033242</v>
       </c>
       <c r="Y34" t="n">
-        <v>431.3492683572568</v>
+        <v>1464.201482535628</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>825.9296003819453</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C35" t="n">
-        <v>432.7540988848759</v>
+        <v>1137.494635074837</v>
       </c>
       <c r="D35" t="n">
-        <v>47.31297010154361</v>
+        <v>1137.494635074837</v>
       </c>
       <c r="E35" t="n">
-        <v>47.31297010154361</v>
+        <v>1137.494635074837</v>
       </c>
       <c r="F35" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
         <v>47.31297010154361</v>
@@ -6938,19 +6940,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M35" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N35" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O35" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P35" t="n">
         <v>2365.64850507718</v>
@@ -6959,28 +6961,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W35" t="n">
-        <v>2012.367660239684</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X35" t="n">
-        <v>1622.915055172741</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y35" t="n">
-        <v>1226.424346093342</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N36" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
         <v>2365.648505077179</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>2142.536443893824</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>1972.331325959813</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>1816.698212862328</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1661.13940072153</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1503.813465934503</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S37" t="n">
-        <v>745.9439088256454</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T37" t="n">
-        <v>745.9439088256454</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U37" t="n">
-        <v>460.5051170675463</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V37" t="n">
-        <v>194.5257718883706</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W37" t="n">
-        <v>194.5257718883706</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X37" t="n">
-        <v>194.5257718883706</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>2142.536443893824</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1173.731587788408</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="C38" t="n">
-        <v>1173.731587788408</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D38" t="n">
-        <v>788.2904590050753</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E38" t="n">
-        <v>788.2904590050753</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F38" t="n">
-        <v>371.396020535053</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
         <v>2365.64850507718</v>
@@ -7199,25 +7201,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U38" t="n">
-        <v>2283.328141196001</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V38" t="n">
-        <v>1941.221331899519</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="W38" t="n">
-        <v>1570.222296867806</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="X38" t="n">
-        <v>1570.222296867806</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="Y38" t="n">
-        <v>1173.731587788408</v>
+        <v>2127.814985091395</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
         <v>47.31297010154361</v>
@@ -7257,37 +7259,37 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>272.5108437565964</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631986</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7296,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>224.7860652357804</v>
+        <v>373.6716394051961</v>
       </c>
       <c r="C40" t="n">
-        <v>215.5670240020981</v>
+        <v>373.6716394051961</v>
       </c>
       <c r="D40" t="n">
-        <v>215.5670240020981</v>
+        <v>373.6716394051961</v>
       </c>
       <c r="E40" t="n">
-        <v>215.5670240020981</v>
+        <v>218.1128272643986</v>
       </c>
       <c r="F40" t="n">
-        <v>215.5670240020981</v>
+        <v>60.78689247737151</v>
       </c>
       <c r="G40" t="n">
         <v>47.31297010154361</v>
@@ -7354,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S40" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T40" t="n">
-        <v>510.2248569938795</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U40" t="n">
-        <v>224.7860652357804</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V40" t="n">
-        <v>224.7860652357804</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="W40" t="n">
-        <v>224.7860652357804</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="X40" t="n">
-        <v>224.7860652357804</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7860652357804</v>
+        <v>558.8796580964973</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2161.142036303753</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="C41" t="n">
-        <v>1989.47786818386</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="D41" t="n">
-        <v>1604.036739400527</v>
+        <v>621.3346449007199</v>
       </c>
       <c r="E41" t="n">
-        <v>1201.453214517072</v>
+        <v>621.3346449007199</v>
       </c>
       <c r="F41" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
         <v>47.31297010154361</v>
@@ -7412,16 +7414,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O41" t="n">
         <v>1832.61545280471</v>
@@ -7433,28 +7435,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2161.142036303753</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U41" t="n">
-        <v>2161.142036303753</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V41" t="n">
-        <v>2161.142036303753</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W41" t="n">
-        <v>2161.142036303753</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X41" t="n">
-        <v>2161.142036303753</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="Y41" t="n">
-        <v>2161.142036303753</v>
+        <v>1006.775773684052</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M42" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N42" t="n">
-        <v>1701.875066013061</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O42" t="n">
-        <v>2218.395348604042</v>
+        <v>1952.636489659666</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2358.257858376064</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.648505077179</v>
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.2297945224647</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>174.2297945224647</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
         <v>47.31297010154361</v>
@@ -7606,13 +7608,13 @@
         <v>397.3418557058213</v>
       </c>
       <c r="W43" t="n">
-        <v>397.3418557058213</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X43" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.2297945224647</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>259.99134197559</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C44" t="n">
-        <v>259.99134197559</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D44" t="n">
-        <v>170.8439294065068</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E44" t="n">
-        <v>170.8439294065068</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F44" t="n">
-        <v>170.8439294065068</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G44" t="n">
-        <v>170.8439294065068</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H44" t="n">
-        <v>170.8439294065068</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>177.1565854077998</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>177.1565854077998</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>177.1565854077998</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M44" t="n">
-        <v>287.7639633265648</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N44" t="n">
-        <v>690.0357680013394</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O44" t="n">
-        <v>1092.307572676114</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P44" t="n">
-        <v>1440.495064807636</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>1625.340624948584</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>1625.340624948584</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T44" t="n">
-        <v>1625.340624948584</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U44" t="n">
-        <v>1369.587895383183</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V44" t="n">
-        <v>1027.481086086701</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W44" t="n">
-        <v>656.4820510549889</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X44" t="n">
-        <v>656.4820510549889</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="Y44" t="n">
-        <v>259.99134197559</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>574.1283073233797</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>423.4740768834719</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>293.3851095049522</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>156.9386186158399</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>32.50681249897168</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K45" t="n">
-        <v>32.50681249897168</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>32.50681249897168</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>184.16011936937</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N45" t="n">
-        <v>586.4319240441446</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O45" t="n">
-        <v>988.7037287189191</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>1390.975533393694</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.340624948584</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1625.340624948584</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1547.203183834468</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1324.663182205535</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>1094.545936338822</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>905.2388586888337</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.924641764341</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>805.7286435169739</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>969.8562833907737</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>1156.147861729038</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>1339.337495760247</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.042262801955</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>1621.918428578533</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>1625.340624948584</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>1501.439635581161</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.623551763711</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>1062.904499931945</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>777.4657081738455</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V46" t="n">
-        <v>723.8936024070319</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.8936024070319</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>363.4321479293332</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7991,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,10 +8066,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>656.228399718133</v>
+        <v>415.8062469585533</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,19 +8224,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>501.5538002401705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,16 +8297,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>183.2986537257091</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>454.5321323046934</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8453,10 +8455,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8538,13 +8540,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>509.5709760063966</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594865</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8690,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>452.0904133284578</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8699,16 +8701,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8772,13 +8774,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>317.5329465084876</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>667.5244230630196</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,7 +9008,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>238.3374974274113</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9024,7 +9026,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>239.7287152499919</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9164,10 +9166,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M17" t="n">
         <v>701.2411122488187</v>
@@ -9176,10 +9178,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9249,7 +9251,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
         <v>676.7842391234617</v>
@@ -9258,7 +9260,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9650,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9717,22 +9719,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9878,7 +9880,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>603.2495781888792</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9887,13 +9889,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>359.0336792490003</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9954,7 +9956,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9966,10 +9968,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
-        <v>440.1969457594865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10121,13 +10123,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>580.6283116859817</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10197,7 +10199,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536975</v>
       </c>
       <c r="N30" t="n">
         <v>676.7842391234617</v>
@@ -10206,7 +10208,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10428,7 +10430,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,13 +10439,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>502.5559668112504</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>235.8239269133925</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10586,10 +10588,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10598,10 +10600,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10665,13 +10667,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>99.85242174740807</v>
       </c>
       <c r="N36" t="n">
         <v>676.7842391234617</v>
@@ -10680,7 +10682,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10832,16 +10834,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600596</v>
+        <v>394.3609707612346</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10905,13 +10907,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>317.5329465084867</v>
       </c>
       <c r="M39" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>415.8062469585533</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11060,19 +11062,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
         <v>502.0059847475129</v>
@@ -11139,7 +11141,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,16 +11150,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>98.45345285401062</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>597.9750644161435</v>
       </c>
       <c r="M44" t="n">
-        <v>261.449675758096</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>555.8989936612425</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>502.0059847475129</v>
@@ -11373,25 +11375,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>245.5722805042597</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>491.7072690913127</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>499.0227151260349</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P45" t="n">
-        <v>493.4185210564607</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>203.1064487544352</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22598,16 +22600,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>157.9120650118683</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -22708,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>92.48239428282</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>92.48239428282028</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22999,13 +23001,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>49.69512981577691</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>61.69385230722895</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>149.0579253873694</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23176,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.9986533628255</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23191,16 +23193,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -23312,16 +23314,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>212.9321535112554</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>48.80965324549976</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.6661361284234</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23434,7 +23436,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>108.8015838723062</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23482,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0.599120126672517</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23546,22 +23548,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>59.85708420411831</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23655,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>68.15966136820178</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.235600322151</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>244.1333520245213</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23744,7 +23746,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23941,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>118.57278356006</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>373.1787999389006</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>14.62710557178752</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -24029,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>66.12369447580254</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24139,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>142.7096089143915</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24175,10 +24177,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24187,13 +24189,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>59.30815885305668</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>304.7961950819886</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,16 +24262,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>5.549913401644204</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.5715133615489</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.7572500699934</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24458,7 +24460,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24491,13 +24493,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>153.0219216530477</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>227.8352342700393</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24613,13 +24615,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24652,19 +24654,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>118.57278356006</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>72.06282472580648</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>69.35088129382882</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>194.0021582760328</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275524</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24850,16 +24852,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>102.1373121979656</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
@@ -24968,7 +24970,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>80.05677630083534</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>222.2460966637776</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.655282120902</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25087,10 +25089,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25129,7 +25131,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>123.2694091388846</v>
       </c>
     </row>
     <row r="35">
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>63.31899364781282</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25214,10 +25216,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>17.54100829227411</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>127.3556497966622</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25360,16 +25362,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -25378,7 +25380,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.14026680256438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>171.6980420273795</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>268.0789759259493</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>159.3762159333251</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>153.2323302094793</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25628,22 +25630,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>219.2962200434046</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>253.4751639910144</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25789,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>28.42912578979855</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>293.3307790521065</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25880,7 +25882,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25910,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>312.6855712100567</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>130.6064451851696</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>210.2831670182385</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>643851.5278864531</v>
+        <v>643851.5278864533</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>643851.5278864532</v>
+        <v>643851.5278864529</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>643851.5278864532</v>
+        <v>643851.5278864533</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643851.5278864529</v>
+        <v>643851.5278864531</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>643851.5278864533</v>
+        <v>643851.5278864534</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725351.2724704497</v>
+        <v>643851.5278864532</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>725351.2724704494</v>
+        <v>643851.5278864529</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643851.5278864533</v>
+        <v>643851.5278864532</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643851.5278864532</v>
+        <v>643851.5278864534</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643851.5278864534</v>
+        <v>643851.5278864527</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643851.5278864533</v>
+        <v>643851.5278864529</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>643851.5278864532</v>
+        <v>643851.5278864534</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518939.8590516844</v>
+        <v>643851.5278864534</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>158101.391659894</v>
       </c>
       <c r="C2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="D2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="E2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="F2" t="n">
         <v>158101.391659894</v>
@@ -26329,19 +26331,19 @@
         <v>158101.391659894</v>
       </c>
       <c r="H2" t="n">
-        <v>178111.7448695732</v>
+        <v>158101.3916598938</v>
       </c>
       <c r="I2" t="n">
-        <v>178111.7448695732</v>
+        <v>158101.391659894</v>
       </c>
       <c r="J2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="K2" t="n">
+        <v>158101.391659894</v>
+      </c>
+      <c r="L2" t="n">
         <v>158101.3916598939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>158101.391659894</v>
       </c>
       <c r="M2" t="n">
         <v>158101.391659894</v>
@@ -26353,7 +26355,7 @@
         <v>158101.391659894</v>
       </c>
       <c r="P2" t="n">
-        <v>127432.2573435514</v>
+        <v>158101.391659894</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="C4" t="n">
         <v>11907.28194961663</v>
@@ -26433,10 +26435,10 @@
         <v>11907.28194961663</v>
       </c>
       <c r="H4" t="n">
-        <v>13453.11359961299</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="I4" t="n">
-        <v>13453.11359961299</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="J4" t="n">
         <v>11907.28194961663</v>
@@ -26457,7 +26459,7 @@
         <v>11907.28194961663</v>
       </c>
       <c r="P4" t="n">
-        <v>9538.042486054368</v>
+        <v>11907.28194961662</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
         <v>35957.85727717314</v>
@@ -26509,7 +26511,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121587.1535586408</v>
+        <v>-121587.1535586407</v>
       </c>
       <c r="C6" t="n">
-        <v>76608.65243310417</v>
+        <v>76608.6524331042</v>
       </c>
       <c r="D6" t="n">
         <v>76608.6524331042</v>
       </c>
       <c r="E6" t="n">
-        <v>110236.2524331043</v>
+        <v>110236.2524331042</v>
       </c>
       <c r="F6" t="n">
         <v>110236.2524331042</v>
       </c>
       <c r="G6" t="n">
+        <v>110236.2524331042</v>
+      </c>
+      <c r="H6" t="n">
+        <v>110236.2524331041</v>
+      </c>
+      <c r="I6" t="n">
+        <v>110236.2524331042</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-44503.1819324992</v>
+      </c>
+      <c r="K6" t="n">
         <v>110236.2524331043</v>
       </c>
-      <c r="H6" t="n">
-        <v>67512.66200742833</v>
-      </c>
-      <c r="I6" t="n">
-        <v>117448.0942148324</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3921.096814592405</v>
-      </c>
-      <c r="K6" t="n">
-        <v>110236.2524331042</v>
-      </c>
       <c r="L6" t="n">
-        <v>110236.2524331042</v>
+        <v>110236.2524331041</v>
       </c>
       <c r="M6" t="n">
         <v>110236.2524331042</v>
@@ -26561,7 +26563,7 @@
         <v>110236.2524331042</v>
       </c>
       <c r="P6" t="n">
-        <v>93189.03735827853</v>
+        <v>110236.2524331043</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -26829,7 +26831,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>220.3737447500958</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34711,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,10 +34786,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>570.8562868639664</v>
+        <v>330.4341341043866</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34944,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>351.8287486424433</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>93.7017183923758</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>362.1450102553815</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>417.1838539570846</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705977</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>309.0320101492204</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35419,16 +35421,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>227.4725996515694</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>582.152310208853</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>148.740562094078</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35896,10 +35898,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
         <v>591.4121262692951</v>
@@ -35978,7 +35980,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36370,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>450.0014084583875</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36607,13 +36609,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>209.4698418249039</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36686,10 +36688,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
-        <v>347.5093868705977</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36841,13 +36843,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>431.5098203481975</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043856</v>
       </c>
       <c r="N30" t="n">
         <v>591.4121262692951</v>
@@ -36926,7 +36928,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,13 +37159,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>417.1838539570837</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37318,10 +37320,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698096163</v>
       </c>
       <c r="N36" t="n">
         <v>591.4121262692951</v>
@@ -37400,7 +37402,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37552,16 +37554,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359632</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>227.4725996515685</v>
       </c>
       <c r="M39" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>330.4341341043866</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37780,19 +37782,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,16 +37870,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>7.465299698096623</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>444.7268946856518</v>
       </c>
       <c r="M44" t="n">
-        <v>111.7246241603687</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>406.3351562371461</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>153.1851584549478</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>406.3351562371461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>406.3351562371461</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P45" t="n">
-        <v>406.3351562371461</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>564123.0359685745</v>
+        <v>558414.8801606885</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7444934.365268382</v>
+        <v>7444934.365268384</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>271.6910307320624</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>63.35353140430914</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.4144422354058</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>23.07869429521004</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>304.0074039714629</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>167.8202982761268</v>
       </c>
     </row>
     <row r="6">
@@ -1028,7 +1028,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830814</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.795945947054</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>307.6077533827491</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>254.6210691929066</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>40.26304875849193</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
@@ -1587,10 +1587,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>12.26270138885032</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>161.4085122120592</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1672,7 +1672,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>225.95392306687</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>145.1103944575774</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>63.92357920362163</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -1912,7 +1912,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>394.4040223850893</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>118.3967320750832</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>23.8619044471574</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>72.87250780621707</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.04602484718566</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -2383,10 +2383,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.5268685648662</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -2490,7 +2490,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>262.0283575295313</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>71.07064157577214</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>25.35996799970812</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>206.6890709537359</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>159.6766942690402</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>319.8928651882699</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>126.0782150006455</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>206.6890709537359</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3094,10 +3094,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>258.2849521346028</v>
       </c>
       <c r="Y32" t="n">
-        <v>170.2797053248273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3246,16 +3246,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.61153143263847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>320.5801763796943</v>
       </c>
       <c r="F35" t="n">
-        <v>349.4065004375092</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>39.21586356488675</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>211.5232543309191</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>70.60676527756748</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.33918315206962</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>159.2503300943076</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>25.11299369150388</v>
       </c>
     </row>
     <row r="42">
@@ -3960,10 +3960,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>114.7890777533882</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -4036,16 +4036,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>55.54417746876485</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>72.87250780621707</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>97.61153143263803</v>
       </c>
       <c r="W46" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1645.407563735423</v>
+        <v>1530.670136571906</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.232062238354</v>
+        <v>1137.494635074837</v>
       </c>
       <c r="D2" t="n">
-        <v>866.7909334550213</v>
+        <v>1137.494635074837</v>
       </c>
       <c r="E2" t="n">
-        <v>464.2074085715658</v>
+        <v>734.9111101913813</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>734.9111101913813</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>321.7483546793845</v>
       </c>
       <c r="H2" t="n">
         <v>47.31297010154361</v>
@@ -4354,28 +4354,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2301.655039012222</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U2" t="n">
-        <v>2045.90230944682</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V2" t="n">
-        <v>2045.90230944682</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.90230944682</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.90230944682</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="Y2" t="n">
-        <v>2045.90230944682</v>
+        <v>1931.164882283303</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>184.9976404890318</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I3" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4518,22 +4518,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>70.62478252094769</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2058.57031924742</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C5" t="n">
-        <v>1665.394817750351</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D5" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4573,16 +4573,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>1590.266290800943</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N5" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
         <v>2365.64850507718</v>
@@ -4594,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>617.323168617109</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.64850507718</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K6" t="n">
-        <v>140.0776713099957</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>623.6437572083089</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083089</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O6" t="n">
         <v>1725.662044805892</v>
@@ -4676,13 +4676,13 @@
         <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1989.47786818386</v>
+        <v>751.2033740054303</v>
       </c>
       <c r="C8" t="n">
-        <v>1989.47786818386</v>
+        <v>358.0278725083609</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4804,22 +4804,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4831,25 +4831,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.655591362702</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.655591362702</v>
+        <v>1151.698119716827</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154434</v>
       </c>
       <c r="J9" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>2021.614212075288</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4995,19 +4995,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>825.9296003819453</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="C11" t="n">
-        <v>432.7540988848759</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>1537.146688151772</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>1134.563163268317</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>717.6687247982946</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>304.5059692862978</v>
       </c>
       <c r="H11" t="n">
         <v>47.31297010154361</v>
@@ -5041,52 +5041,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U11" t="n">
-        <v>2324.978758856481</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V11" t="n">
-        <v>1982.87194956</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W11" t="n">
-        <v>1611.872914528287</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X11" t="n">
-        <v>1222.420309461344</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y11" t="n">
-        <v>825.9296003819453</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L12" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>632.8109751081457</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.14176221491</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O12" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
         <v>47.31297010154361</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V13" t="n">
-        <v>100.8850758683575</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.31297010154361</v>
+        <v>866.0377941700547</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154361</v>
+        <v>472.8622926729852</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>472.8622926729852</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>472.8622926729852</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>472.8622926729852</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>59.69953716098837</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5278,25 +5278,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
         <v>2365.64850507718</v>
@@ -5305,25 +5305,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T14" t="n">
-        <v>2202.609603852878</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U14" t="n">
-        <v>1946.856874287477</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V14" t="n">
-        <v>1604.750064990995</v>
+        <v>1633.527538281166</v>
       </c>
       <c r="W14" t="n">
-        <v>1233.751029959283</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="X14" t="n">
-        <v>844.2984248923394</v>
+        <v>1262.528503249453</v>
       </c>
       <c r="Y14" t="n">
-        <v>447.8077158129405</v>
+        <v>866.0377941700547</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>194.5661265746808</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L15" t="n">
-        <v>678.1322124729941</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M15" t="n">
-        <v>1263.630217479596</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N15" t="n">
-        <v>1849.128222486198</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.648505077179</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2151.633694533565</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
         <v>47.31297010154361</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>579.3302549026308</v>
+        <v>514.4657669078492</v>
       </c>
       <c r="C17" t="n">
-        <v>432.7540988848759</v>
+        <v>514.4657669078492</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>514.4657669078492</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>111.8822420243937</v>
       </c>
       <c r="F17" t="n">
         <v>47.31297010154361</v>
@@ -5515,25 +5515,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>503.6092283712875</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
         <v>2365.64850507718</v>
@@ -5542,25 +5542,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T17" t="n">
-        <v>1937.641433863169</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U17" t="n">
-        <v>1681.888704297768</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V17" t="n">
-        <v>1339.781895001287</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="W17" t="n">
-        <v>968.782859969574</v>
+        <v>1700.903826765588</v>
       </c>
       <c r="X17" t="n">
-        <v>579.3302549026308</v>
+        <v>1311.451221698645</v>
       </c>
       <c r="Y17" t="n">
-        <v>579.3302549026308</v>
+        <v>914.9605126192462</v>
       </c>
     </row>
     <row r="18">
@@ -5609,10 +5609,10 @@
         <v>1701.875066013061</v>
       </c>
       <c r="O18" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>862.595309970646</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C20" t="n">
-        <v>862.595309970646</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D20" t="n">
-        <v>862.595309970646</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E20" t="n">
-        <v>862.595309970646</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F20" t="n">
-        <v>445.7008715006237</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
         <v>47.31297010154361</v>
@@ -5755,16 +5755,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L20" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N20" t="n">
-        <v>2118.077574438405</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O20" t="n">
         <v>2365.64850507718</v>
@@ -5779,25 +5779,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2246.05584641548</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>2022.555243974897</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>2022.555243974897</v>
       </c>
       <c r="V20" t="n">
-        <v>2023.541695780699</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="W20" t="n">
-        <v>1652.542660748986</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="X20" t="n">
-        <v>1263.090055682043</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y20" t="n">
-        <v>1263.090055682043</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L21" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M21" t="n">
-        <v>1443.506853769802</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>226.8944549250571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>226.8944549250571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>226.8944549250571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>226.8944549250571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>226.8944549250571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
         <v>47.31297010154361</v>
@@ -5937,25 +5937,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>510.2248569938795</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>510.2248569938795</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>510.2248569938795</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>226.8944549250571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>226.8944549250571</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>226.8944549250571</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>466.1046008912472</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C23" t="n">
-        <v>466.1046008912472</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D23" t="n">
-        <v>466.1046008912472</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E23" t="n">
-        <v>63.52107600779175</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F23" t="n">
-        <v>63.52107600779175</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G23" t="n">
-        <v>63.52107600779175</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I23" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N23" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O23" t="n">
-        <v>2365.64850507718</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P23" t="n">
         <v>2365.64850507718</v>
@@ -6013,28 +6013,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V23" t="n">
-        <v>2023.541695780699</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W23" t="n">
-        <v>1652.542660748986</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X23" t="n">
-        <v>1263.090055682043</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y23" t="n">
-        <v>866.5993466026441</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M24" t="n">
         <v>1116.377061006459</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6113,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>510.2248569938795</v>
+        <v>684.084884027408</v>
       </c>
       <c r="C25" t="n">
-        <v>510.2248569938795</v>
+        <v>684.084884027408</v>
       </c>
       <c r="D25" t="n">
-        <v>360.1977170293682</v>
+        <v>528.4517709299226</v>
       </c>
       <c r="E25" t="n">
-        <v>204.6389048885707</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154361</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G25" t="n">
         <v>47.31297010154361</v>
@@ -6174,25 +6174,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>510.2248569938795</v>
+        <v>684.084884027408</v>
       </c>
       <c r="V25" t="n">
-        <v>510.2248569938795</v>
+        <v>684.084884027408</v>
       </c>
       <c r="W25" t="n">
-        <v>510.2248569938795</v>
+        <v>684.084884027408</v>
       </c>
       <c r="X25" t="n">
-        <v>510.2248569938795</v>
+        <v>684.084884027408</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.2248569938795</v>
+        <v>684.084884027408</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>440.488471598613</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="C26" t="n">
-        <v>47.31297010154361</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D26" t="n">
-        <v>47.31297010154361</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E26" t="n">
-        <v>47.31297010154361</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F26" t="n">
         <v>47.31297010154361</v>
@@ -6226,52 +6226,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L26" t="n">
-        <v>851.7967205028091</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M26" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N26" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q26" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U26" t="n">
-        <v>2340.032375784546</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V26" t="n">
-        <v>1997.925566488064</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W26" t="n">
-        <v>1626.926531456352</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X26" t="n">
-        <v>1237.473926389409</v>
+        <v>921.4370641991123</v>
       </c>
       <c r="Y26" t="n">
-        <v>840.9832173100099</v>
+        <v>921.4370641991123</v>
       </c>
     </row>
     <row r="27">
@@ -6320,7 +6320,7 @@
         <v>1701.875066013061</v>
       </c>
       <c r="O27" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P27" t="n">
         <v>2365.64850507718</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>1597.29590789855</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U28" t="n">
-        <v>2365.64850507718</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V28" t="n">
-        <v>2365.64850507718</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W28" t="n">
-        <v>2082.318103008358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>1921.02851283761</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1927.160845651305</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="C29" t="n">
-        <v>1604.036739400527</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="D29" t="n">
-        <v>1604.036739400527</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.453214517072</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F29" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G29" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
         <v>47.31297010154361</v>
@@ -6463,16 +6463,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N29" t="n">
         <v>1925.608904184852</v>
@@ -6487,28 +6487,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T29" t="n">
-        <v>2327.655591362702</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U29" t="n">
-        <v>2327.655591362702</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V29" t="n">
-        <v>2327.655591362702</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W29" t="n">
-        <v>2327.655591362702</v>
+        <v>1250.42307639188</v>
       </c>
       <c r="X29" t="n">
-        <v>2327.655591362702</v>
+        <v>860.9704713249373</v>
       </c>
       <c r="Y29" t="n">
-        <v>2327.655591362702</v>
+        <v>860.9704713249373</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631986</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6645,28 +6645,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S31" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4295905742738</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X31" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.2372071739002</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>835.3376237683314</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="C32" t="n">
-        <v>835.3376237683314</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="D32" t="n">
-        <v>449.8964949849991</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6703,19 +6703,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P32" t="n">
         <v>2365.64850507718</v>
@@ -6724,28 +6724,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U32" t="n">
-        <v>2109.895775511779</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V32" t="n">
-        <v>1767.788966215297</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W32" t="n">
-        <v>1396.789931183585</v>
+        <v>1448.036191975559</v>
       </c>
       <c r="X32" t="n">
-        <v>1007.337326116642</v>
+        <v>1187.142300930505</v>
       </c>
       <c r="Y32" t="n">
-        <v>835.3376237683314</v>
+        <v>1187.142300930505</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L33" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.648505077179</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U34" t="n">
-        <v>2080.209713319081</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V34" t="n">
-        <v>2080.209713319081</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W34" t="n">
-        <v>1796.879311250259</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X34" t="n">
-        <v>1562.798989033242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1530.670136571906</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.494635074837</v>
+        <v>1173.466897334387</v>
       </c>
       <c r="D35" t="n">
-        <v>1137.494635074837</v>
+        <v>788.0257685510551</v>
       </c>
       <c r="E35" t="n">
-        <v>1137.494635074837</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F35" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G35" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H35" t="n">
         <v>47.31297010154361</v>
@@ -6940,22 +6940,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q35" t="n">
         <v>2365.64850507718</v>
@@ -6964,25 +6964,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U35" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V35" t="n">
-        <v>2327.655591362702</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W35" t="n">
-        <v>2327.655591362702</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X35" t="n">
-        <v>2327.655591362702</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="Y35" t="n">
-        <v>1931.164882283303</v>
+        <v>1566.642398831457</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631986</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2142.536443893824</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>1972.331325959813</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>1816.698212862328</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>1661.13940072153</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>1503.813465934503</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>2365.64850507718</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V37" t="n">
-        <v>2365.64850507718</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W37" t="n">
-        <v>2365.64850507718</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X37" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>2142.536443893824</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2127.814985091395</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C38" t="n">
-        <v>2127.814985091395</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D38" t="n">
-        <v>1742.373856308063</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E38" t="n">
-        <v>1339.790331424607</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F38" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G38" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K38" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M38" t="n">
-        <v>1590.266290800943</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N38" t="n">
-        <v>1590.266290800943</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q38" t="n">
         <v>2365.64850507718</v>
@@ -7201,25 +7201,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T38" t="n">
-        <v>2199.134950018231</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U38" t="n">
-        <v>2199.134950018231</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V38" t="n">
-        <v>2127.814985091395</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W38" t="n">
-        <v>2127.814985091395</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X38" t="n">
-        <v>2127.814985091395</v>
+        <v>1039.58945324146</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.814985091395</v>
+        <v>1039.58945324146</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>272.5108437565964</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>858.0088487631986</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="P39" t="n">
         <v>2365.648505077179</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.6716394051961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>373.6716394051961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>373.6716394051961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>218.1128272643986</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>60.78689247737151</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
         <v>47.31297010154361</v>
@@ -7356,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>824.8590032756731</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>558.8796580964973</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W40" t="n">
-        <v>558.8796580964973</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X40" t="n">
-        <v>558.8796580964973</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>558.8796580964973</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1006.775773684052</v>
+        <v>981.4091133896038</v>
       </c>
       <c r="C41" t="n">
-        <v>1006.775773684052</v>
+        <v>588.2336118925343</v>
       </c>
       <c r="D41" t="n">
-        <v>621.3346449007199</v>
+        <v>588.2336118925343</v>
       </c>
       <c r="E41" t="n">
-        <v>621.3346449007199</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I41" t="n">
         <v>47.31297010154361</v>
@@ -7423,13 +7423,13 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1832.61545280471</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
         <v>2365.64850507718</v>
@@ -7456,7 +7456,7 @@
         <v>1006.775773684052</v>
       </c>
       <c r="Y41" t="n">
-        <v>1006.775773684052</v>
+        <v>981.4091133896038</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M42" t="n">
-        <v>1436.116207068686</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N42" t="n">
-        <v>1436.116207068686</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O42" t="n">
-        <v>1952.636489659666</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.257858376064</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.648505077179</v>
@@ -7608,7 +7608,7 @@
         <v>397.3418557058213</v>
       </c>
       <c r="W43" t="n">
-        <v>281.3932923185605</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X43" t="n">
         <v>47.31297010154361</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>895.1742662259204</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="C44" t="n">
-        <v>895.1742662259204</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="D44" t="n">
-        <v>509.7331374425881</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E44" t="n">
-        <v>509.7331374425881</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F44" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G44" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>846.5749518678007</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
         <v>1392.575851912381</v>
@@ -7672,28 +7672,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U44" t="n">
-        <v>1681.888704297768</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V44" t="n">
-        <v>1339.781895001287</v>
+        <v>1663.776388245817</v>
       </c>
       <c r="W44" t="n">
-        <v>968.782859969574</v>
+        <v>1663.776388245817</v>
       </c>
       <c r="X44" t="n">
-        <v>895.1742662259204</v>
+        <v>1663.776388245817</v>
       </c>
       <c r="Y44" t="n">
-        <v>895.1742662259204</v>
+        <v>1267.285679166418</v>
       </c>
     </row>
     <row r="45">
@@ -7733,13 +7733,13 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L45" t="n">
-        <v>963.7331842818107</v>
+        <v>623.643757208308</v>
       </c>
       <c r="M45" t="n">
-        <v>1549.231189288413</v>
+        <v>623.643757208308</v>
       </c>
       <c r="N45" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O45" t="n">
         <v>1725.662044805891</v>
@@ -7836,16 +7836,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>427.6021490532311</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6228038740554</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154361</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X46" t="n">
         <v>47.31297010154361</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,16 +8069,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>415.8062469585533</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8221,19 +8221,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>634.4471913084061</v>
       </c>
       <c r="O5" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8297,19 +8297,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>183.2986537257091</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577846</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8534,25 +8534,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>186.0888404416877</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>440.1969457594865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8698,19 +8698,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>412.8955348410459</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600596</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,22 +8768,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>667.5244230630196</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8935,19 +8935,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>238.3374974274113</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9017,16 +9017,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>307.1647294625955</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>614.1534811140714</v>
+        <v>470.2375325962349</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9257,13 +9257,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>116.714810194778</v>
       </c>
       <c r="P18" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9403,7 +9403,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>311.2540453751045</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9415,7 +9415,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>179.0738312465417</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9500,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>505.666843611017</v>
@@ -9652,10 +9652,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>545.7463662600596</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
-        <v>150.3014472409252</v>
+        <v>400.3730943507992</v>
       </c>
       <c r="Q23" t="n">
         <v>144.4986984183922</v>
@@ -9728,16 +9728,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>179.0738312465423</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>603.2495781888792</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9892,10 +9892,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9968,10 +9968,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>353.4472259067894</v>
       </c>
       <c r="P27" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10123,7 +10123,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O29" t="n">
         <v>594.0482827698827</v>
@@ -10196,13 +10196,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>422.8212561536975</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>667.5244230630196</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10351,7 +10351,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
@@ -10363,10 +10363,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N33" t="n">
-        <v>502.5559668112504</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10588,10 +10588,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10600,13 +10600,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,19 +10673,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>99.85242174740807</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10834,16 +10834,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>394.3609707612346</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>683.7992483186069</v>
@@ -10916,10 +10916,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>320.3351938922079</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11071,16 +11071,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>393.9156246749224</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>149.5638374240964</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>384.8576652182067</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>98.45345285401062</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>597.9750644161435</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N44" t="n">
         <v>149.1184913377841</v>
@@ -11381,16 +11381,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617774</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
-        <v>270.9005442600792</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22552,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>49.15118919711182</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>157.9120650118683</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22615,7 +22615,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>160.2772442091782</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -22758,13 +22758,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.48239428282</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22834,25 +22834,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>224.7055037124781</v>
       </c>
     </row>
     <row r="6">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,16 +22995,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.69385230722895</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>73.97896411274985</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23086,10 +23086,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,16 +23235,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>66.22115073626762</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.9321535112554</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23436,10 +23436,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23509,10 +23509,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>308.5795185403239</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23545,13 +23545,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59.85708420411831</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
@@ -23709,13 +23709,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>56.63048077364803</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>244.1333520245213</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>348.8019148817004</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23977,13 +23977,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>14.62710557178752</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24019,10 +24019,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>46.45168743327677</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24141,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>142.7096089143915</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24177,16 +24177,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>316.3712386758816</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24223,10 +24223,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>304.7961950819886</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>5.549913401644204</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24414,13 +24414,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>20.5560463109868</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>318.1731049063266</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>227.8352342700393</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>200.7879229792761</v>
@@ -24657,16 +24657,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>56.63048077364809</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.06282472580648</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>69.35088129382882</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>241.2108296807499</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.04094380275524</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24894,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>56.63048077364809</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>127.2731268816709</v>
       </c>
       <c r="Y32" t="n">
-        <v>222.2460966637776</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.2694091388846</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>77.97751325492658</v>
       </c>
       <c r="F35" t="n">
-        <v>63.31899364781282</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>127.3556497966622</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
         <v>153.923765528121</v>
@@ -25368,19 +25368,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>184.9665439233638</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>268.0789759259493</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25557,13 +25557,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>153.2323302094793</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>200.7879229792761</v>
@@ -25605,16 +25605,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25630,25 +25630,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>253.4751639910144</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>367.412808297101</v>
       </c>
     </row>
     <row r="42">
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>165.7080202947459</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>283.1415637347519</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>312.6855712100567</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26076,19 +26076,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="W46" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>643851.5278864533</v>
+        <v>643851.5278864531</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>643851.5278864529</v>
+        <v>643851.5278864534</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>643851.5278864529</v>
+        <v>643851.5278864534</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643851.5278864531</v>
+        <v>643851.5278864533</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>643851.5278864532</v>
+        <v>643851.5278864533</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>643851.5278864529</v>
+        <v>643851.5278864531</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643851.5278864532</v>
+        <v>643851.5278864533</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>643851.5278864527</v>
+        <v>643851.5278864532</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>643851.5278864529</v>
+        <v>643851.5278864534</v>
       </c>
     </row>
     <row r="15">
@@ -26322,7 +26322,7 @@
         <v>158101.391659894</v>
       </c>
       <c r="E2" t="n">
-        <v>158101.3916598939</v>
+        <v>158101.391659894</v>
       </c>
       <c r="F2" t="n">
         <v>158101.391659894</v>
@@ -26331,13 +26331,13 @@
         <v>158101.391659894</v>
       </c>
       <c r="H2" t="n">
-        <v>158101.3916598938</v>
+        <v>158101.391659894</v>
       </c>
       <c r="I2" t="n">
         <v>158101.391659894</v>
       </c>
       <c r="J2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598941</v>
       </c>
       <c r="K2" t="n">
         <v>158101.391659894</v>
@@ -26349,7 +26349,7 @@
         <v>158101.391659894</v>
       </c>
       <c r="N2" t="n">
-        <v>158101.391659894</v>
+        <v>158101.3916598939</v>
       </c>
       <c r="O2" t="n">
         <v>158101.391659894</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
       <c r="C4" t="n">
         <v>11907.28194961663</v>
@@ -26429,13 +26429,13 @@
         <v>11907.28194961663</v>
       </c>
       <c r="F4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="G4" t="n">
         <v>11907.28194961663</v>
       </c>
       <c r="H4" t="n">
-        <v>11907.28194961663</v>
+        <v>11907.28194961662</v>
       </c>
       <c r="I4" t="n">
         <v>11907.28194961663</v>
@@ -26459,7 +26459,7 @@
         <v>11907.28194961663</v>
       </c>
       <c r="P4" t="n">
-        <v>11907.28194961662</v>
+        <v>11907.28194961663</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121587.1535586407</v>
+        <v>-122261.1796848608</v>
       </c>
       <c r="C6" t="n">
-        <v>76608.6524331042</v>
+        <v>75934.62630688417</v>
       </c>
       <c r="D6" t="n">
-        <v>76608.6524331042</v>
+        <v>75934.62630688417</v>
       </c>
       <c r="E6" t="n">
-        <v>110236.2524331042</v>
+        <v>109562.2263068842</v>
       </c>
       <c r="F6" t="n">
-        <v>110236.2524331042</v>
+        <v>109562.2263068842</v>
       </c>
       <c r="G6" t="n">
-        <v>110236.2524331042</v>
+        <v>109562.2263068842</v>
       </c>
       <c r="H6" t="n">
-        <v>110236.2524331041</v>
+        <v>109562.2263068842</v>
       </c>
       <c r="I6" t="n">
-        <v>110236.2524331042</v>
+        <v>109562.2263068842</v>
       </c>
       <c r="J6" t="n">
-        <v>-44503.1819324992</v>
+        <v>-45177.20805871918</v>
       </c>
       <c r="K6" t="n">
-        <v>110236.2524331043</v>
+        <v>109562.2263068842</v>
       </c>
       <c r="L6" t="n">
-        <v>110236.2524331041</v>
+        <v>109562.2263068841</v>
       </c>
       <c r="M6" t="n">
-        <v>110236.2524331042</v>
+        <v>109562.2263068842</v>
       </c>
       <c r="N6" t="n">
-        <v>110236.2524331043</v>
+        <v>109562.2263068841</v>
       </c>
       <c r="O6" t="n">
-        <v>110236.2524331042</v>
+        <v>109562.2263068842</v>
       </c>
       <c r="P6" t="n">
-        <v>110236.2524331043</v>
+        <v>109562.2263068842</v>
       </c>
     </row>
   </sheetData>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,16 +34789,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>330.4341341043866</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>485.328699970622</v>
       </c>
       <c r="O5" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>93.7017183923758</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>93.7017183923758</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>347.5093868705977</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35418,19 +35418,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>263.1704832433186</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359632</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>582.152310208853</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35655,19 +35655,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>148.740562094078</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35737,16 +35737,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>216.1765763066815</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>460.9053113835797</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>24.02725130588916</v>
       </c>
       <c r="P18" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36135,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>93.701718392375</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36220,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36372,10 +36372,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>396.1825288359632</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>93.70171839237568</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>450.0014084583875</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36612,10 +36612,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>260.7596670179005</v>
       </c>
       <c r="P27" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36843,7 +36843,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O29" t="n">
         <v>444.4844453457863</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>330.4341341043856</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>582.152310208853</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37083,10 +37083,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N33" t="n">
-        <v>417.1838539570837</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37320,13 +37320,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,19 +37393,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>7.465299698096163</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37554,16 +37554,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>244.7971333371383</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>591.4121262692951</v>
@@ -37636,10 +37636,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,16 +37791,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>244.7971333371383</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
+        <v>292.4705431688948</v>
+      </c>
+      <c r="N42" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.465299698096623</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>444.7268946856518</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
       <c r="O45" t="n">
-        <v>178.2129853711903</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
